--- a/OTHERS/DOC/画面設計書.xlsx
+++ b/OTHERS/DOC/画面設計書.xlsx
@@ -4,20 +4,577 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="3"/>
+    <workbookView windowWidth="23325" windowHeight="12420"/>
   </bookViews>
   <sheets>
-    <sheet name="01.ログイン画面" sheetId="1" r:id="rId1"/>
-    <sheet name="02.店舗選択画面" sheetId="2" r:id="rId2"/>
-    <sheet name="03.メニュー画面" sheetId="3" r:id="rId3"/>
-    <sheet name="04.マスタ情報管理画面" sheetId="4" r:id="rId4"/>
+    <sheet name="00.画面機能一覧" sheetId="5" r:id="rId1"/>
+    <sheet name="コード定義" sheetId="6" r:id="rId2"/>
+    <sheet name="01.ログイン画面" sheetId="1" r:id="rId3"/>
+    <sheet name="02.店舗選択画面" sheetId="2" r:id="rId4"/>
+    <sheet name="03.メニュー画面" sheetId="3" r:id="rId5"/>
+    <sheet name="04.マスタ情報管理画面" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="245">
+  <si>
+    <t>番号</t>
+  </si>
+  <si>
+    <t>画面</t>
+  </si>
+  <si>
+    <t>JSP名（フロント側）</t>
+  </si>
+  <si>
+    <t>機能</t>
+  </si>
+  <si>
+    <t>JSP名（サーバー側）</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+  </si>
+  <si>
+    <t>login.jsp</t>
+  </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>login.js</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>店舗選択画面</t>
+  </si>
+  <si>
+    <t>shoplist.jsp</t>
+  </si>
+  <si>
+    <t>画面初期化</t>
+  </si>
+  <si>
+    <t>shoplist_init.js</t>
+  </si>
+  <si>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>データ導入画面</t>
+  </si>
+  <si>
+    <t>import.jsp</t>
+  </si>
+  <si>
+    <t>import_init.js</t>
+  </si>
+  <si>
+    <t>ファイルチェック</t>
+  </si>
+  <si>
+    <t>import_check.js</t>
+  </si>
+  <si>
+    <t>ファイル識別</t>
+  </si>
+  <si>
+    <t>import_reorganize.js</t>
+  </si>
+  <si>
+    <t>ファイル導入</t>
+  </si>
+  <si>
+    <t>import_import.js</t>
+  </si>
+  <si>
+    <t>0401</t>
+  </si>
+  <si>
+    <t>マスタ情報管理画面</t>
+  </si>
+  <si>
+    <t>masterinfo.jsp</t>
+  </si>
+  <si>
+    <t>masterinfo_init.js</t>
+  </si>
+  <si>
+    <t>検索ボタン押下</t>
+  </si>
+  <si>
+    <t>masterinfo_search.js</t>
+  </si>
+  <si>
+    <t>更新ボタン押下</t>
+  </si>
+  <si>
+    <t>masterinfo_update.js</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>　マスタ情報詳細画面</t>
+  </si>
+  <si>
+    <t>masterinfo_inputdialog.jsp</t>
+  </si>
+  <si>
+    <t>保存ボタン押下</t>
+  </si>
+  <si>
+    <t>masterinfo_save.js</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>在庫情報管理画面</t>
+  </si>
+  <si>
+    <t>stockinfo.jsp</t>
+  </si>
+  <si>
+    <t>stockinfo_init.js</t>
+  </si>
+  <si>
+    <t>stockinfo_update.js</t>
+  </si>
+  <si>
+    <t>出力ボタン押下</t>
+  </si>
+  <si>
+    <t>stockinfo_output.js</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>納品情報管理画面</t>
+  </si>
+  <si>
+    <t>delivery.jsp</t>
+  </si>
+  <si>
+    <t>delivery_init.js</t>
+  </si>
+  <si>
+    <t>新規ボタン押下</t>
+  </si>
+  <si>
+    <t>delivery_add.js</t>
+  </si>
+  <si>
+    <t>納品内容ボタン押下</t>
+  </si>
+  <si>
+    <t>delivery_list.js</t>
+  </si>
+  <si>
+    <t>納品更新ボタン押下</t>
+  </si>
+  <si>
+    <t>delivery_update.js</t>
+  </si>
+  <si>
+    <t>箱詰めボタン押下</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>納品削除ボタン押下</t>
+  </si>
+  <si>
+    <t>delivery_delete.js</t>
+  </si>
+  <si>
+    <t>納品発送ボタン押下</t>
+  </si>
+  <si>
+    <t>delivery_send.js</t>
+  </si>
+  <si>
+    <t>納品受領ボタン押下</t>
+  </si>
+  <si>
+    <t>delivery_receive.js</t>
+  </si>
+  <si>
+    <t>納品完了ボタン押下</t>
+  </si>
+  <si>
+    <t>delivery_complete.js</t>
+  </si>
+  <si>
+    <t>納品NOリンク押下</t>
+  </si>
+  <si>
+    <t>delivery_output.js</t>
+  </si>
+  <si>
+    <t>0602</t>
+  </si>
+  <si>
+    <t>　納品内容画面</t>
+  </si>
+  <si>
+    <t>delivery_content_inputdialog.jsp</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>　納品箱詰め画面</t>
+  </si>
+  <si>
+    <t>delivery_box_inputdialog.jsp</t>
+  </si>
+  <si>
+    <t>確定ボタン押下</t>
+  </si>
+  <si>
+    <t>delivery_box.js</t>
+  </si>
+  <si>
+    <t>0701</t>
+  </si>
+  <si>
+    <t>仕入情報管理画面</t>
+  </si>
+  <si>
+    <t>purchase.jsp</t>
+  </si>
+  <si>
+    <t>purchase_init.js</t>
+  </si>
+  <si>
+    <t>仕入内容ボタン押下</t>
+  </si>
+  <si>
+    <t>purchase_list.js</t>
+  </si>
+  <si>
+    <t>仕入更新ボタン押下</t>
+  </si>
+  <si>
+    <t>purchase_update.js</t>
+  </si>
+  <si>
+    <t>仕入削除ボタン押下</t>
+  </si>
+  <si>
+    <t>purchase_delete.js</t>
+  </si>
+  <si>
+    <t>仕入発送ボタン押下</t>
+  </si>
+  <si>
+    <t>purchase_send.js</t>
+  </si>
+  <si>
+    <t>仕入受領ボタン押下</t>
+  </si>
+  <si>
+    <t>purchase_receive.js</t>
+  </si>
+  <si>
+    <t>仕入完了ボタン押下</t>
+  </si>
+  <si>
+    <t>purchase_complete.js</t>
+  </si>
+  <si>
+    <t>仕入NOリンク押下</t>
+  </si>
+  <si>
+    <t>purchase_output.js</t>
+  </si>
+  <si>
+    <t>0702</t>
+  </si>
+  <si>
+    <t>　仕入内容画面</t>
+  </si>
+  <si>
+    <t>purchase_content_inputdialog.jsp</t>
+  </si>
+  <si>
+    <t>0703</t>
+  </si>
+  <si>
+    <t>　仕入詳細画面</t>
+  </si>
+  <si>
+    <t>purchase_inputdialog.jsp</t>
+  </si>
+  <si>
+    <t>purchase_save.js</t>
+  </si>
+  <si>
+    <t>0801</t>
+  </si>
+  <si>
+    <t>代行発送商品管理画面</t>
+  </si>
+  <si>
+    <t>shipactingmaster.jsp</t>
+  </si>
+  <si>
+    <t>shipactingmaster_init.js</t>
+  </si>
+  <si>
+    <t>shipactingmaster_update.js</t>
+  </si>
+  <si>
+    <t>0802</t>
+  </si>
+  <si>
+    <t>　代行発送商品詳細画面</t>
+  </si>
+  <si>
+    <t>shipactingmaster_inputdialog.jsp</t>
+  </si>
+  <si>
+    <t>shipactingmaster_save.js</t>
+  </si>
+  <si>
+    <t>0901</t>
+  </si>
+  <si>
+    <t>代行発送情報管理画面</t>
+  </si>
+  <si>
+    <t>shipacting.jsp</t>
+  </si>
+  <si>
+    <t>shipacting_init.js</t>
+  </si>
+  <si>
+    <t>shipacting_update.js</t>
+  </si>
+  <si>
+    <t>0902</t>
+  </si>
+  <si>
+    <t>　代行発送情報詳細画面</t>
+  </si>
+  <si>
+    <t>shipacting_inputdialog.jsp</t>
+  </si>
+  <si>
+    <t>shipacting_save.js</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>発送情報管理画面</t>
+  </si>
+  <si>
+    <t>sending.jsp</t>
+  </si>
+  <si>
+    <t>sending_init.js</t>
+  </si>
+  <si>
+    <t>商品集計</t>
+  </si>
+  <si>
+    <t>sending_list.js</t>
+  </si>
+  <si>
+    <t>sending_update.js</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>　発送情報詳細画面</t>
+  </si>
+  <si>
+    <t>sending_inputdialog.jsp</t>
+  </si>
+  <si>
+    <t>sending_save.js</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>　発送情報商品集計画面</t>
+  </si>
+  <si>
+    <t>sending_list_inputdialog.jsp</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>売上情報管理画面</t>
+  </si>
+  <si>
+    <t>earnings.jsp</t>
+  </si>
+  <si>
+    <t>earnings_init.js</t>
+  </si>
+  <si>
+    <t>在庫計算ボタン押下</t>
+  </si>
+  <si>
+    <t>earnings_list.js</t>
+  </si>
+  <si>
+    <t>年月リンク押下</t>
+  </si>
+  <si>
+    <t>earnings_showdetail.js</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>　在庫計算画面</t>
+  </si>
+  <si>
+    <t>earnings_stock_inputdialog.jsp</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>　売上情報詳細画面</t>
+  </si>
+  <si>
+    <t>earnings_inputdialog.jsp</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>商品スキャン画面</t>
+  </si>
+  <si>
+    <t>scan.jsp</t>
+  </si>
+  <si>
+    <t>scan_init.js</t>
+  </si>
+  <si>
+    <t>scan_update.js</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>スキャン詳細情報画面</t>
+  </si>
+  <si>
+    <t>scan_inputdialog.jsp</t>
+  </si>
+  <si>
+    <t>スキャン</t>
+  </si>
+  <si>
+    <t>scan_search.js</t>
+  </si>
+  <si>
+    <t>scan_save.js</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>TODO情報管理画面</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>写真アップロード</t>
+  </si>
+  <si>
+    <t>uploadpic.jsp</t>
+  </si>
+  <si>
+    <t>親子区分</t>
+  </si>
+  <si>
+    <t>納品ステータス</t>
+  </si>
+  <si>
+    <t>仕入ステータス</t>
+  </si>
+  <si>
+    <t>代行発送ステータス</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>親商品</t>
+  </si>
+  <si>
+    <t>登録済</t>
+  </si>
+  <si>
+    <t>依頼中</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>子商品</t>
+  </si>
+  <si>
+    <t>発送済</t>
+  </si>
+  <si>
+    <t>受入済</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>受領中</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>納品済</t>
+  </si>
+  <si>
+    <t>支払済</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
   <si>
     <t>No.0</t>
   </si>
@@ -206,8 +763,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -233,8 +790,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -384,12 +942,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF96"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -578,7 +1160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -661,6 +1243,559 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -769,46 +1904,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,46 +1958,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,22 +1988,28 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -898,23 +2021,35 @@
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,10 +2059,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -952,6 +2084,408 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1007,6 +2541,14 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FFFFC8"/>
+      <color rgb="0064FFFF"/>
+      <color rgb="00C8FFFF"/>
+      <color rgb="00FFFF96"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2010,6 +3552,1281 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B2:F78"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="28.125" customWidth="1"/>
+    <col min="4" max="4" width="38.375" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="30.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="15" customHeight="1" spans="2:6">
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="2:6">
+      <c r="B3" s="128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:6">
+      <c r="B4" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:6">
+      <c r="B5" s="129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:6">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:6">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:6">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:6">
+      <c r="B9" s="130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:6">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:6">
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:6">
+      <c r="B12" s="131" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:6">
+      <c r="B13" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:6">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:6">
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:6">
+      <c r="B16" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:6">
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:6">
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:6">
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:6">
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:6">
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:6">
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:6">
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:6">
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:6">
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:6">
+      <c r="B26" s="133" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:6">
+      <c r="B27" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:6">
+      <c r="B28" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:6">
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:6">
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:6">
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:6">
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:6">
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:6">
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:6">
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:6">
+      <c r="B36" s="65"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:6">
+      <c r="B37" s="133" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:6">
+      <c r="B38" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:6">
+      <c r="B39" s="135" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:6">
+      <c r="B40" s="72"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:6">
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:6">
+      <c r="B42" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="2:6">
+      <c r="B43" s="137" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:6">
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:6">
+      <c r="B45" s="76"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:6">
+      <c r="B46" s="136" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:6">
+      <c r="B47" s="138" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:6">
+      <c r="B48" s="89"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="2:6">
+      <c r="B49" s="89"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="2:6">
+      <c r="B50" s="94"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:6">
+      <c r="B51" s="139" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:6">
+      <c r="B52" s="140" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="105" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:6">
+      <c r="B53" s="141" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="2:6">
+      <c r="B54" s="72"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="2:6">
+      <c r="B55" s="76"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="2:6">
+      <c r="B56" s="142" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="109" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="2:6">
+      <c r="B57" s="136" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="110" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="2:6">
+      <c r="B58" s="141" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="107" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="2:6">
+      <c r="B59" s="72"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" s="75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="2:6">
+      <c r="B60" s="76"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="79" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="2:6">
+      <c r="B61" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="114" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="2:6">
+      <c r="B62" s="116"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="2:6">
+      <c r="B63" s="76"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="121"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="122"/>
+    </row>
+    <row r="64" customHeight="1" spans="2:6">
+      <c r="B64" s="108"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="109"/>
+    </row>
+    <row r="65" customHeight="1" spans="2:6">
+      <c r="B65" s="108"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="109"/>
+    </row>
+    <row r="66" customHeight="1" spans="2:6">
+      <c r="B66" s="108"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="109"/>
+    </row>
+    <row r="67" customHeight="1" spans="2:6">
+      <c r="B67" s="142" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="109"/>
+    </row>
+    <row r="68" customHeight="1" spans="2:6">
+      <c r="B68" s="111"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="112"/>
+      <c r="F68" s="124"/>
+    </row>
+    <row r="69" customHeight="1" spans="2:6">
+      <c r="B69" s="144" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="126"/>
+      <c r="F69" s="127"/>
+    </row>
+    <row r="70" customHeight="1" spans="2:6">
+      <c r="B70" s="108"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="109"/>
+    </row>
+    <row r="71" customHeight="1" spans="2:6">
+      <c r="B71" s="108"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="109"/>
+    </row>
+    <row r="72" customHeight="1" spans="2:6">
+      <c r="B72" s="108"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="109"/>
+    </row>
+    <row r="73" customHeight="1" spans="2:6">
+      <c r="B73" s="108"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="109"/>
+    </row>
+    <row r="74" customHeight="1" spans="2:6">
+      <c r="B74" s="108"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="109"/>
+    </row>
+    <row r="75" customHeight="1" spans="2:6">
+      <c r="B75" s="108"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="109"/>
+    </row>
+    <row r="76" customHeight="1" spans="2:6">
+      <c r="B76" s="108"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="109"/>
+    </row>
+    <row r="77" customHeight="1" spans="2:6">
+      <c r="B77" s="108"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="109"/>
+    </row>
+    <row r="78" customHeight="1" spans="2:6">
+      <c r="B78" s="80"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="110"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:K20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="11" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="20" customHeight="1" spans="2:11">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="2:11">
+      <c r="B3" s="145" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="2:11">
+      <c r="B4" s="145" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="2:11">
+      <c r="B5" s="145" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="2:11">
+      <c r="B6" s="145" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="2:11">
+      <c r="B7" s="145" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="2:11">
+      <c r="B8" s="145" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="2:11">
+      <c r="B9" s="145" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="2:11">
+      <c r="B10" s="145" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="2:11">
+      <c r="B11" s="145" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="2:11">
+      <c r="B12" s="145" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="2:11">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="2:11">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="2:11">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="2:11">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="2:11">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="2:11">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="2:11">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="2:11">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2024,7 +4841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2041,7 +4858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2058,15 +4875,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B44:N111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="12270" topLeftCell="A101" activePane="topLeft"/>
-      <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="4845" topLeftCell="A113" activePane="bottomLeft"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="AG125" sqref="AG125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2076,441 +4893,441 @@
   <sheetData>
     <row r="44" customHeight="1" spans="2:14">
       <c r="B44" s="2" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:14">
-      <c r="C46" s="3" t="s">
-        <v>4</v>
+      <c r="C46" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>5</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="4:14">
-      <c r="D48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>7</v>
+      <c r="D48" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:14">
-      <c r="C50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="4"/>
+      <c r="C50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="3"/>
       <c r="N50" s="1" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="4:14">
       <c r="D52" s="1" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="4:4">
       <c r="D53" s="1" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="6:14">
-      <c r="F54" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="10"/>
+      <c r="F54" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="9"/>
       <c r="N54" s="1" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="6:10">
-      <c r="F55" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55" s="11"/>
+      <c r="F55" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J55" s="10"/>
     </row>
     <row r="56" customHeight="1" spans="6:10">
-      <c r="F56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" s="11"/>
+      <c r="F56" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J56" s="10"/>
     </row>
     <row r="57" customHeight="1" spans="6:10">
-      <c r="F57" s="7"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" s="11"/>
+        <v>206</v>
+      </c>
+      <c r="J57" s="10"/>
     </row>
     <row r="58" customHeight="1" spans="6:10">
-      <c r="F58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J58" s="11"/>
+      <c r="F58" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J58" s="10"/>
     </row>
     <row r="59" customHeight="1" spans="6:10">
-      <c r="F59" s="7"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J59" s="11"/>
+        <v>208</v>
+      </c>
+      <c r="J59" s="10"/>
     </row>
     <row r="60" customHeight="1" spans="6:10">
-      <c r="F60" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J60" s="11"/>
+      <c r="F60" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J60" s="10"/>
     </row>
     <row r="61" customHeight="1" spans="6:10">
-      <c r="F61" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="12"/>
+      <c r="F61" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="11"/>
     </row>
     <row r="62" customHeight="1" spans="4:6">
       <c r="D62" s="1" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="4:6">
       <c r="D63" s="1" t="s">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:14">
       <c r="B65" s="2" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>32</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="4:14">
-      <c r="D67" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="10"/>
+      <c r="D67" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="9"/>
       <c r="N67" s="1" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="4:10">
-      <c r="D68" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J68" s="11"/>
+      <c r="D68" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="J68" s="10"/>
     </row>
     <row r="69" customHeight="1" spans="4:10">
-      <c r="D69" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J69" s="11"/>
+      <c r="D69" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J69" s="10"/>
     </row>
     <row r="70" customHeight="1" spans="4:10">
-      <c r="D70" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J70" s="11"/>
+      <c r="D70" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J70" s="10"/>
     </row>
     <row r="71" customHeight="1" spans="4:10">
-      <c r="D71" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J71" s="11"/>
+      <c r="D71" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="J71" s="10"/>
     </row>
     <row r="72" customHeight="1" spans="4:10">
-      <c r="D72" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J72" s="11"/>
+      <c r="D72" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J72" s="10"/>
     </row>
     <row r="73" customHeight="1" spans="4:10">
-      <c r="D73" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J73" s="11"/>
+      <c r="D73" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J73" s="10"/>
     </row>
     <row r="74" customHeight="1" spans="4:10">
-      <c r="D74" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J74" s="11"/>
+      <c r="D74" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J74" s="10"/>
     </row>
     <row r="75" customHeight="1" spans="4:10">
-      <c r="D75" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J75" s="11"/>
+      <c r="D75" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J75" s="10"/>
     </row>
     <row r="76" customHeight="1" spans="4:10">
-      <c r="D76" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J76" s="11"/>
+      <c r="D76" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J76" s="10"/>
     </row>
     <row r="77" customHeight="1" spans="4:10">
-      <c r="D77" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J77" s="11"/>
+      <c r="D77" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J77" s="10"/>
     </row>
     <row r="78" customHeight="1" spans="4:10">
-      <c r="D78" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J78" s="11"/>
+      <c r="D78" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J78" s="10"/>
     </row>
     <row r="79" customHeight="1" spans="4:10">
-      <c r="D79" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J79" s="11"/>
+      <c r="D79" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J79" s="10"/>
     </row>
     <row r="80" customHeight="1" spans="4:10">
-      <c r="D80" s="7"/>
+      <c r="D80" s="6"/>
       <c r="E80" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J80" s="11"/>
+        <v>206</v>
+      </c>
+      <c r="J80" s="10"/>
     </row>
     <row r="81" customHeight="1" spans="4:10">
-      <c r="D81" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J81" s="11"/>
+      <c r="D81" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J81" s="10"/>
     </row>
     <row r="82" customHeight="1" spans="4:10">
-      <c r="D82" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J82" s="11"/>
+      <c r="D82" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J82" s="10"/>
     </row>
     <row r="83" customHeight="1" spans="4:10">
-      <c r="D83" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J83" s="11"/>
+      <c r="D83" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J83" s="10"/>
     </row>
     <row r="84" customHeight="1" spans="4:10">
-      <c r="D84" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J84" s="11"/>
+      <c r="D84" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J84" s="10"/>
     </row>
     <row r="85" customHeight="1" spans="4:10">
-      <c r="D85" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J85" s="11"/>
+      <c r="D85" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J85" s="10"/>
     </row>
     <row r="86" customHeight="1" spans="4:10">
-      <c r="D86" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J86" s="11"/>
+      <c r="D86" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J86" s="10"/>
     </row>
     <row r="87" customHeight="1" spans="4:10">
-      <c r="D87" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J87" s="11"/>
+      <c r="D87" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J87" s="10"/>
     </row>
     <row r="88" customHeight="1" spans="4:10">
-      <c r="D88" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J88" s="11"/>
+      <c r="D88" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J88" s="10"/>
     </row>
     <row r="89" customHeight="1" spans="4:10">
-      <c r="D89" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J89" s="11"/>
+      <c r="D89" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J89" s="10"/>
     </row>
     <row r="90" customHeight="1" spans="4:10">
-      <c r="D90" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J90" s="11"/>
+      <c r="D90" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J90" s="10"/>
     </row>
     <row r="91" customHeight="1" spans="4:10">
-      <c r="D91" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J91" s="11"/>
+      <c r="D91" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="J91" s="10"/>
     </row>
     <row r="92" customHeight="1" spans="4:10">
-      <c r="D92" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J92" s="11"/>
+      <c r="D92" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J92" s="10"/>
     </row>
     <row r="93" customHeight="1" spans="4:10">
-      <c r="D93" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J93" s="11"/>
+      <c r="D93" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="J93" s="10"/>
     </row>
     <row r="94" customHeight="1" spans="4:10">
-      <c r="D94" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J94" s="11"/>
+      <c r="D94" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J94" s="10"/>
     </row>
     <row r="95" customHeight="1" spans="4:10">
-      <c r="D95" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J95" s="11"/>
+      <c r="D95" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="J95" s="10"/>
     </row>
     <row r="96" customHeight="1" spans="4:10">
-      <c r="D96" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J96" s="11"/>
+      <c r="D96" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J96" s="10"/>
     </row>
     <row r="97" customHeight="1" spans="4:10">
-      <c r="D97" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J97" s="11"/>
+      <c r="D97" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J97" s="10"/>
     </row>
     <row r="98" customHeight="1" spans="4:10">
-      <c r="D98" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J98" s="11"/>
+      <c r="D98" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J98" s="10"/>
     </row>
     <row r="99" customHeight="1" spans="4:10">
-      <c r="D99" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J99" s="11"/>
+      <c r="D99" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J99" s="10"/>
     </row>
     <row r="100" customHeight="1" spans="4:10">
-      <c r="D100" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J100" s="11"/>
+      <c r="D100" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J100" s="10"/>
     </row>
     <row r="101" customHeight="1" spans="4:10">
-      <c r="D101" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J101" s="11"/>
+      <c r="D101" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="J101" s="10"/>
     </row>
     <row r="102" customHeight="1" spans="4:10">
-      <c r="D102" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J102" s="11"/>
+      <c r="D102" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J102" s="10"/>
     </row>
     <row r="103" customHeight="1" spans="4:10">
-      <c r="D103" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J103" s="11"/>
+      <c r="D103" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J103" s="10"/>
     </row>
     <row r="104" customHeight="1" spans="4:10">
-      <c r="D104" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J104" s="11"/>
+      <c r="D104" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J104" s="10"/>
     </row>
     <row r="105" customHeight="1" spans="4:10">
-      <c r="D105" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J105" s="11"/>
+      <c r="D105" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="J105" s="10"/>
     </row>
     <row r="106" customHeight="1" spans="4:10">
-      <c r="D106" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J106" s="11"/>
+      <c r="D106" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J106" s="10"/>
     </row>
     <row r="107" customHeight="1" spans="4:10">
-      <c r="D107" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J107" s="11"/>
+      <c r="D107" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J107" s="10"/>
     </row>
     <row r="108" customHeight="1" spans="4:10">
-      <c r="D108" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J108" s="11"/>
+      <c r="D108" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J108" s="10"/>
     </row>
     <row r="109" customHeight="1" spans="4:10">
-      <c r="D109" s="7"/>
+      <c r="D109" s="6"/>
       <c r="E109" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J109" s="11"/>
+        <v>208</v>
+      </c>
+      <c r="J109" s="10"/>
     </row>
     <row r="110" customHeight="1" spans="4:10">
-      <c r="D110" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J110" s="11"/>
+      <c r="D110" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J110" s="10"/>
     </row>
     <row r="111" customHeight="1" spans="4:10">
-      <c r="D111" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="12"/>
+      <c r="D111" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OTHERS/DOC/画面設計書.xlsx
+++ b/OTHERS/DOC/画面設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="00.画面機能一覧" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="270">
   <si>
     <t>番号</t>
   </si>
@@ -36,6 +36,9 @@
     <t>JSP名（サーバー側）</t>
   </si>
   <si>
+    <t>DB操作</t>
+  </si>
+  <si>
     <t>0101</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
     <t>login.js</t>
   </si>
   <si>
+    <t>COMMON.xml</t>
+  </si>
+  <si>
     <t>0201</t>
   </si>
   <si>
@@ -69,6 +75,18 @@
     <t>0301</t>
   </si>
   <si>
+    <t>メニュー画面</t>
+  </si>
+  <si>
+    <t>menu.jsp</t>
+  </si>
+  <si>
+    <t>menu_init.js</t>
+  </si>
+  <si>
+    <t>0401</t>
+  </si>
+  <si>
     <t>データ導入画面</t>
   </si>
   <si>
@@ -78,6 +96,9 @@
     <t>import_init.js</t>
   </si>
   <si>
+    <t>IMPORT.xml</t>
+  </si>
+  <si>
     <t>ファイルチェック</t>
   </si>
   <si>
@@ -96,7 +117,7 @@
     <t>import_import.js</t>
   </si>
   <si>
-    <t>0401</t>
+    <t>0501</t>
   </si>
   <si>
     <t>マスタ情報管理画面</t>
@@ -108,6 +129,9 @@
     <t>masterinfo_init.js</t>
   </si>
   <si>
+    <t>MASTER.xml</t>
+  </si>
+  <si>
     <t>検索ボタン押下</t>
   </si>
   <si>
@@ -120,7 +144,7 @@
     <t>masterinfo_update.js</t>
   </si>
   <si>
-    <t>0402</t>
+    <t>0502</t>
   </si>
   <si>
     <t>　マスタ情報詳細画面</t>
@@ -135,7 +159,7 @@
     <t>masterinfo_save.js</t>
   </si>
   <si>
-    <t>0501</t>
+    <t>0601</t>
   </si>
   <si>
     <t>在庫情報管理画面</t>
@@ -147,6 +171,9 @@
     <t>stockinfo_init.js</t>
   </si>
   <si>
+    <t>STOCK.xml</t>
+  </si>
+  <si>
     <t>stockinfo_update.js</t>
   </si>
   <si>
@@ -156,7 +183,7 @@
     <t>stockinfo_output.js</t>
   </si>
   <si>
-    <t>0601</t>
+    <t>0701</t>
   </si>
   <si>
     <t>納品情報管理画面</t>
@@ -168,6 +195,9 @@
     <t>delivery_init.js</t>
   </si>
   <si>
+    <t>DELIVERY.xml</t>
+  </si>
+  <si>
     <t>新規ボタン押下</t>
   </si>
   <si>
@@ -222,7 +252,7 @@
     <t>delivery_output.js</t>
   </si>
   <si>
-    <t>0602</t>
+    <t>0702</t>
   </si>
   <si>
     <t>　納品内容画面</t>
@@ -231,7 +261,7 @@
     <t>delivery_content_inputdialog.jsp</t>
   </si>
   <si>
-    <t>0603</t>
+    <t>0703</t>
   </si>
   <si>
     <t>　納品箱詰め画面</t>
@@ -246,7 +276,7 @@
     <t>delivery_box.js</t>
   </si>
   <si>
-    <t>0701</t>
+    <t>0801</t>
   </si>
   <si>
     <t>仕入情報管理画面</t>
@@ -258,6 +288,9 @@
     <t>purchase_init.js</t>
   </si>
   <si>
+    <t>PURCHASE.xml</t>
+  </si>
+  <si>
     <t>仕入内容ボタン押下</t>
   </si>
   <si>
@@ -300,7 +333,7 @@
     <t>purchase_output.js</t>
   </si>
   <si>
-    <t>0702</t>
+    <t>0802</t>
   </si>
   <si>
     <t>　仕入内容画面</t>
@@ -309,7 +342,7 @@
     <t>purchase_content_inputdialog.jsp</t>
   </si>
   <si>
-    <t>0703</t>
+    <t>0803</t>
   </si>
   <si>
     <t>　仕入詳細画面</t>
@@ -321,7 +354,7 @@
     <t>purchase_save.js</t>
   </si>
   <si>
-    <t>0801</t>
+    <t>0901</t>
   </si>
   <si>
     <t>代行発送商品管理画面</t>
@@ -333,10 +366,13 @@
     <t>shipactingmaster_init.js</t>
   </si>
   <si>
+    <t>SHIPACTINGMASTER.xml</t>
+  </si>
+  <si>
     <t>shipactingmaster_update.js</t>
   </si>
   <si>
-    <t>0802</t>
+    <t>0902</t>
   </si>
   <si>
     <t>　代行発送商品詳細画面</t>
@@ -348,7 +384,7 @@
     <t>shipactingmaster_save.js</t>
   </si>
   <si>
-    <t>0901</t>
+    <t>1001</t>
   </si>
   <si>
     <t>代行発送情報管理画面</t>
@@ -360,10 +396,13 @@
     <t>shipacting_init.js</t>
   </si>
   <si>
+    <t>SHIPACTING.xml</t>
+  </si>
+  <si>
     <t>shipacting_update.js</t>
   </si>
   <si>
-    <t>0902</t>
+    <t>1002</t>
   </si>
   <si>
     <t>　代行発送情報詳細画面</t>
@@ -375,7 +414,7 @@
     <t>shipacting_save.js</t>
   </si>
   <si>
-    <t>1001</t>
+    <t>1101</t>
   </si>
   <si>
     <t>発送情報管理画面</t>
@@ -387,6 +426,9 @@
     <t>sending_init.js</t>
   </si>
   <si>
+    <t>SENDING.xml</t>
+  </si>
+  <si>
     <t>商品集計</t>
   </si>
   <si>
@@ -396,7 +438,7 @@
     <t>sending_update.js</t>
   </si>
   <si>
-    <t>1002</t>
+    <t>1102</t>
   </si>
   <si>
     <t>　発送情報詳細画面</t>
@@ -408,7 +450,7 @@
     <t>sending_save.js</t>
   </si>
   <si>
-    <t>1003</t>
+    <t>1103</t>
   </si>
   <si>
     <t>　発送情報商品集計画面</t>
@@ -417,7 +459,7 @@
     <t>sending_list_inputdialog.jsp</t>
   </si>
   <si>
-    <t>1101</t>
+    <t>1201</t>
   </si>
   <si>
     <t>売上情報管理画面</t>
@@ -429,6 +471,9 @@
     <t>earnings_init.js</t>
   </si>
   <si>
+    <t>EARNINGS.xml</t>
+  </si>
+  <si>
     <t>在庫計算ボタン押下</t>
   </si>
   <si>
@@ -441,7 +486,7 @@
     <t>earnings_showdetail.js</t>
   </si>
   <si>
-    <t>1102</t>
+    <t>1202</t>
   </si>
   <si>
     <t>　在庫計算画面</t>
@@ -450,7 +495,7 @@
     <t>earnings_stock_inputdialog.jsp</t>
   </si>
   <si>
-    <t>1103</t>
+    <t>1203</t>
   </si>
   <si>
     <t>　売上情報詳細画面</t>
@@ -459,7 +504,7 @@
     <t>earnings_inputdialog.jsp</t>
   </si>
   <si>
-    <t>1201</t>
+    <t>1301</t>
   </si>
   <si>
     <t>商品スキャン画面</t>
@@ -471,10 +516,13 @@
     <t>scan_init.js</t>
   </si>
   <si>
+    <t>SCAN.xml</t>
+  </si>
+  <si>
     <t>scan_update.js</t>
   </si>
   <si>
-    <t>1202</t>
+    <t>1302</t>
   </si>
   <si>
     <t>スキャン詳細情報画面</t>
@@ -492,13 +540,40 @@
     <t>scan_save.js</t>
   </si>
   <si>
-    <t>1301</t>
+    <t>1401</t>
+  </si>
+  <si>
+    <t>コスト情報管理画面</t>
+  </si>
+  <si>
+    <t>cost.jsp</t>
+  </si>
+  <si>
+    <t>cost_init.js</t>
+  </si>
+  <si>
+    <t>COST.xml</t>
+  </si>
+  <si>
+    <t>cost_update.js</t>
+  </si>
+  <si>
+    <t>1402</t>
+  </si>
+  <si>
+    <t>コスト詳細情報管理画面</t>
+  </si>
+  <si>
+    <t>cost_inputdialog.jsp</t>
+  </si>
+  <si>
+    <t>cost_save.js</t>
   </si>
   <si>
     <t>TODO情報管理画面</t>
   </si>
   <si>
-    <t>0000</t>
+    <t>0001</t>
   </si>
   <si>
     <t>写真アップロード</t>
@@ -766,7 +841,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,6 +871,19 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1160,7 +1248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1354,10 +1442,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -1370,6 +1458,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1389,16 +1490,14 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -1453,10 +1552,90 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1469,7 +1648,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1482,7 +1661,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1497,34 +1676,34 @@
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="hair">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="hair">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -1534,10 +1713,51 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="hair">
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -1550,10 +1770,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1565,10 +1785,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1580,22 +1800,9 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1605,10 +1812,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1618,185 +1827,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1907,10 +1944,10 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1919,137 +1956,137 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2110,13 +2147,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
@@ -2125,13 +2165,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
@@ -2143,16 +2222,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
@@ -2161,13 +2246,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
@@ -2179,6 +2264,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2188,6 +2276,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2197,69 +2288,63 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2269,16 +2354,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
@@ -2287,100 +2474,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
@@ -2389,100 +2522,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" quotePrefix="1">
@@ -3552,966 +3652,1154 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F78"/>
+  <dimension ref="B2:G82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="3" width="28.125" customWidth="1"/>
     <col min="4" max="4" width="38.375" customWidth="1"/>
     <col min="5" max="5" width="20.75" customWidth="1"/>
-    <col min="6" max="6" width="30.625" customWidth="1"/>
+    <col min="6" max="7" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15" customHeight="1" spans="2:6">
-      <c r="B2" s="20" t="s">
+    <row r="2" s="20" customFormat="1" ht="30" customHeight="1" spans="2:7">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="2:6">
-      <c r="B3" s="128" t="s">
+      <c r="G2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="24" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="2:7">
+      <c r="B3" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="2:6">
-      <c r="B4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="G3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="24" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="2:7">
+      <c r="B4" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:6">
-      <c r="B5" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:7">
+      <c r="B5" s="149" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:6">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="F5" s="30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:6">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32" t="s">
+      <c r="G5" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:7">
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:7">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:7">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:7">
+      <c r="B9" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="C9" s="43" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:6">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36" t="s">
+      <c r="D9" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="E9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="44" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:6">
-      <c r="B9" s="130" t="s">
+      <c r="G9" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="39" t="s">
+    </row>
+    <row r="10" customHeight="1" spans="2:7">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="F10" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="41" t="s">
+      <c r="G10" s="50"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:7">
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:6">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44" t="s">
+      <c r="F11" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="G11" s="50"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:7">
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:6">
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="46" t="s">
+      <c r="F12" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="G12" s="55"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:7">
+      <c r="B13" s="151" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:6">
-      <c r="B12" s="131" t="s">
+      <c r="C13" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="D13" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="E13" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="G13" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="50" t="s">
+    </row>
+    <row r="14" customHeight="1" spans="2:7">
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:6">
-      <c r="B13" s="130" t="s">
+      <c r="F14" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="G14" s="63"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:7">
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="F15" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="41" t="s">
+      <c r="G15" s="63"/>
+    </row>
+    <row r="16" customHeight="1" spans="2:7">
+      <c r="B16" s="152" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:6">
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="51" t="s">
+      <c r="C16" s="66" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:6">
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
+      <c r="D16" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="E16" s="66" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:6">
-      <c r="B16" s="132" t="s">
+      <c r="F16" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="G16" s="67"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:7">
+      <c r="B17" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="C17" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="41" t="s">
+      <c r="D17" s="57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:6">
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="G17" s="68" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="2:6">
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44" t="s">
+    <row r="18" customHeight="1" spans="2:7">
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="G18" s="70"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:7">
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:6">
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44" t="s">
+      <c r="F19" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="G19" s="75"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:7">
+      <c r="B20" s="153" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="2:6">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44" t="s">
+      <c r="C20" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="D20" s="57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="2:6">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44" t="s">
+      <c r="E20" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="G20" s="68" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="2:6">
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44" t="s">
+    <row r="21" customHeight="1" spans="2:7">
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F21" s="69" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="2:6">
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44" t="s">
+      <c r="G21" s="70"/>
+    </row>
+    <row r="22" customHeight="1" spans="2:7">
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F22" s="69" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="2:6">
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44" t="s">
+      <c r="G22" s="70"/>
+    </row>
+    <row r="23" customHeight="1" spans="2:7">
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F23" s="69" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="2:6">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63" t="s">
+      <c r="G23" s="70"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:7">
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="64" t="s">
+      <c r="F24" s="69" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="2:6">
-      <c r="B26" s="133" t="s">
+      <c r="G24" s="70"/>
+    </row>
+    <row r="25" customHeight="1" spans="2:7">
+      <c r="B25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="F25" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="G25" s="70"/>
+    </row>
+    <row r="26" customHeight="1" spans="2:7">
+      <c r="B26" s="78"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="66" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="2:6">
-      <c r="B27" s="131" t="s">
+      <c r="F26" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="G26" s="70"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:7">
+      <c r="B27" s="78"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="F27" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="G27" s="70"/>
+    </row>
+    <row r="28" customHeight="1" spans="2:7">
+      <c r="B28" s="78"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F28" s="69" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="2:6">
-      <c r="B28" s="134" t="s">
+      <c r="G28" s="70"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:7">
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="F29" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="G29" s="70"/>
+    </row>
+    <row r="30" customHeight="1" spans="2:7">
+      <c r="B30" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="41" t="s">
+      <c r="C30" s="82" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="2:6">
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="2:6">
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44" t="s">
+      <c r="D30" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="E30" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="70"/>
+    </row>
+    <row r="31" customHeight="1" spans="2:7">
+      <c r="B31" s="152" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="2:6">
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44" t="s">
+      <c r="C31" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="D31" s="66" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="2:6">
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44" t="s">
+      <c r="E31" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F31" s="74" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="2:6">
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44" t="s">
+      <c r="G31" s="75"/>
+    </row>
+    <row r="32" customHeight="1" spans="2:7">
+      <c r="B32" s="155" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="C32" s="79" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="2:6">
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="67" t="s">
+      <c r="D32" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="E32" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="58" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="2:6">
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="67" t="s">
+      <c r="G32" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="51" t="s">
+    </row>
+    <row r="33" customHeight="1" spans="2:7">
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="70"/>
+    </row>
+    <row r="34" customHeight="1" spans="2:7">
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="2:6">
-      <c r="B36" s="65"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63" t="s">
+      <c r="F34" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="64" t="s">
+      <c r="G34" s="70"/>
+    </row>
+    <row r="35" customHeight="1" spans="2:7">
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="2:6">
-      <c r="B37" s="133" t="s">
+      <c r="F35" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="G35" s="70"/>
+    </row>
+    <row r="36" customHeight="1" spans="2:7">
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="F36" s="69" t="s">
         <v>95</v>
       </c>
+      <c r="G36" s="70"/>
+    </row>
+    <row r="37" customHeight="1" spans="2:7">
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
       <c r="E37" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="66" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="2:6">
-      <c r="B38" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="F37" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="G37" s="70"/>
+    </row>
+    <row r="38" customHeight="1" spans="2:7">
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" s="55" t="s">
+      <c r="F38" s="69" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="2:6">
-      <c r="B39" s="135" t="s">
+      <c r="G38" s="70"/>
+    </row>
+    <row r="39" customHeight="1" spans="2:7">
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="69" t="s">
+      <c r="F39" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="G39" s="70"/>
+    </row>
+    <row r="40" customHeight="1" spans="2:7">
+      <c r="B40" s="85"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="71" t="s">
+      <c r="F40" s="84" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="2:6">
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="2:6">
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="79" t="s">
+      <c r="G40" s="70"/>
+    </row>
+    <row r="41" customHeight="1" spans="2:7">
+      <c r="B41" s="154" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="42" customHeight="1" spans="2:6">
-      <c r="B42" s="136" t="s">
+      <c r="C41" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="D41" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="81" t="s">
+      <c r="E41" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="70"/>
+    </row>
+    <row r="42" customHeight="1" spans="2:7">
+      <c r="B42" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="82" t="s">
+      <c r="C42" s="66" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="43" customHeight="1" spans="2:6">
-      <c r="B43" s="137" t="s">
+      <c r="D42" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="84" t="s">
+      <c r="E42" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="84" t="s">
+      <c r="G42" s="75"/>
+    </row>
+    <row r="43" customHeight="1" spans="2:7">
+      <c r="B43" s="156" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="71" t="s">
+      <c r="C43" s="87" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="2:6">
-      <c r="B44" s="72"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:6">
-      <c r="B45" s="76"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="79" t="s">
+      <c r="D43" s="87" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="2:6">
-      <c r="B46" s="136" t="s">
+      <c r="E43" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="81" t="s">
+      <c r="G43" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="81" t="s">
+    </row>
+    <row r="44" customHeight="1" spans="2:7">
+      <c r="B44" s="90"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="94"/>
+    </row>
+    <row r="45" customHeight="1" spans="2:7">
+      <c r="B45" s="95"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="E46" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="F46" s="82" t="s">
+      <c r="G45" s="94"/>
+    </row>
+    <row r="46" customHeight="1" spans="2:7">
+      <c r="B46" s="157" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="47" customHeight="1" spans="2:6">
-      <c r="B47" s="138" t="s">
+      <c r="C46" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="86" t="s">
+      <c r="D46" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="86" t="s">
+      <c r="E46" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="87" t="s">
-        <v>13</v>
+      <c r="G46" s="102"/>
+    </row>
+    <row r="47" customHeight="1" spans="2:7">
+      <c r="B47" s="158" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="88" t="s">
+        <v>15</v>
       </c>
       <c r="F47" s="88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="2:6">
-      <c r="B48" s="89"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="91" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="2:6">
-      <c r="B49" s="89"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="92" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="2:6">
-      <c r="B50" s="94"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" s="97" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="2:6">
-      <c r="B51" s="139" t="s">
+      <c r="G47" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="99" t="s">
+    </row>
+    <row r="48" customHeight="1" spans="2:7">
+      <c r="B48" s="90"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="94"/>
+    </row>
+    <row r="49" customHeight="1" spans="2:7">
+      <c r="B49" s="95"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="100" t="s">
+      <c r="G49" s="94"/>
+    </row>
+    <row r="50" customHeight="1" spans="2:7">
+      <c r="B50" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="100" t="s">
-        <v>36</v>
-      </c>
-      <c r="F51" s="101" t="s">
+      <c r="C50" s="100" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="2:6">
-      <c r="B52" s="140" t="s">
+      <c r="D50" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="103" t="s">
+      <c r="E50" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="104" t="s">
+      <c r="G50" s="102"/>
+    </row>
+    <row r="51" customHeight="1" spans="2:7">
+      <c r="B51" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="105" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="2:6">
-      <c r="B53" s="141" t="s">
+      <c r="C51" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="107" t="s">
+      <c r="D51" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="D53" s="69" t="s">
+      <c r="E51" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="E53" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="71" t="s">
+      <c r="G51" s="108" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="2:6">
-      <c r="B54" s="72"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="74" t="s">
+    <row r="52" customHeight="1" spans="2:7">
+      <c r="B52" s="109"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="F54" s="75" t="s">
+      <c r="F52" s="111" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="55" customHeight="1" spans="2:6">
-      <c r="B55" s="76"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="78" t="s">
+      <c r="G52" s="112"/>
+    </row>
+    <row r="53" customHeight="1" spans="2:7">
+      <c r="B53" s="109"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" s="112"/>
+    </row>
+    <row r="54" customHeight="1" spans="2:7">
+      <c r="B54" s="114"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="F55" s="79" t="s">
+      <c r="G54" s="112"/>
+    </row>
+    <row r="55" customHeight="1" spans="2:7">
+      <c r="B55" s="160" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="2:6">
-      <c r="B56" s="142" t="s">
+      <c r="C55" s="119" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="D55" s="120" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="E55" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="109" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="2:6">
-      <c r="B57" s="136" t="s">
+      <c r="G55" s="112"/>
+    </row>
+    <row r="56" customHeight="1" spans="2:7">
+      <c r="B56" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="C57" s="81" t="s">
+      <c r="C56" s="122" t="s">
         <v>144</v>
       </c>
-      <c r="D57" s="81" t="s">
+      <c r="D56" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="E57" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" s="110" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="2:6">
-      <c r="B58" s="141" t="s">
+      <c r="E56" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="124"/>
+    </row>
+    <row r="57" customHeight="1" spans="2:7">
+      <c r="B57" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="107" t="s">
+      <c r="C57" s="126" t="s">
         <v>147</v>
       </c>
-      <c r="D58" s="107" t="s">
+      <c r="D57" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="E58" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="71" t="s">
+      <c r="E57" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="88" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="59" customHeight="1" spans="2:6">
-      <c r="B59" s="72"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="2:6">
-      <c r="B60" s="76"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="79" t="s">
+      <c r="G57" s="89" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="2:6">
-      <c r="B61" s="143" t="s">
+    <row r="58" customHeight="1" spans="2:7">
+      <c r="B58" s="90"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="C61" s="112" t="s">
+      <c r="F58" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="113" t="s">
+      <c r="G58" s="94"/>
+    </row>
+    <row r="59" customHeight="1" spans="2:7">
+      <c r="B59" s="95"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="E61" s="114" t="s">
+      <c r="F59" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="F61" s="115" t="s">
+      <c r="G59" s="94"/>
+    </row>
+    <row r="60" customHeight="1" spans="2:7">
+      <c r="B60" s="163" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="62" customHeight="1" spans="2:6">
-      <c r="B62" s="116"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="119" t="s">
-        <v>36</v>
-      </c>
-      <c r="F62" s="120" t="s">
+      <c r="C60" s="15" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="63" customHeight="1" spans="2:6">
-      <c r="B63" s="76"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="121"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="122"/>
-    </row>
-    <row r="64" customHeight="1" spans="2:6">
-      <c r="B64" s="108"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="123"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="109"/>
-    </row>
-    <row r="65" customHeight="1" spans="2:6">
-      <c r="B65" s="108"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="123"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="109"/>
-    </row>
-    <row r="66" customHeight="1" spans="2:6">
-      <c r="B66" s="108"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="109"/>
-    </row>
-    <row r="67" customHeight="1" spans="2:6">
-      <c r="B67" s="142" t="s">
+      <c r="D60" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="E60" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="94"/>
+    </row>
+    <row r="61" customHeight="1" spans="2:7">
+      <c r="B61" s="157" t="s">
         <v>158</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="109"/>
-    </row>
-    <row r="68" customHeight="1" spans="2:6">
-      <c r="B68" s="111"/>
-      <c r="C68" s="112"/>
-      <c r="D68" s="112"/>
-      <c r="E68" s="112"/>
-      <c r="F68" s="124"/>
-    </row>
-    <row r="69" customHeight="1" spans="2:6">
-      <c r="B69" s="144" t="s">
+      <c r="C61" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="126" t="s">
+      <c r="D61" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="126" t="s">
+      <c r="E61" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="102"/>
+    </row>
+    <row r="62" customHeight="1" spans="2:7">
+      <c r="B62" s="162" t="s">
         <v>161</v>
       </c>
-      <c r="E69" s="126"/>
-      <c r="F69" s="127"/>
-    </row>
-    <row r="70" customHeight="1" spans="2:6">
-      <c r="B70" s="108"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="109"/>
-    </row>
-    <row r="71" customHeight="1" spans="2:6">
-      <c r="B71" s="108"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="109"/>
-    </row>
-    <row r="72" customHeight="1" spans="2:6">
-      <c r="B72" s="108"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="109"/>
-    </row>
-    <row r="73" customHeight="1" spans="2:6">
-      <c r="B73" s="108"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="109"/>
-    </row>
-    <row r="74" customHeight="1" spans="2:6">
-      <c r="B74" s="108"/>
+      <c r="C62" s="126" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="88" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" s="89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="2:7">
+      <c r="B63" s="90"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="94"/>
+    </row>
+    <row r="64" customHeight="1" spans="2:7">
+      <c r="B64" s="95"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="98" t="s">
+        <v>166</v>
+      </c>
+      <c r="G64" s="94"/>
+    </row>
+    <row r="65" customHeight="1" spans="2:7">
+      <c r="B65" s="164" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="129" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="130" t="s">
+        <v>169</v>
+      </c>
+      <c r="E65" s="131" t="s">
+        <v>170</v>
+      </c>
+      <c r="F65" s="132" t="s">
+        <v>171</v>
+      </c>
+      <c r="G65" s="94"/>
+    </row>
+    <row r="66" customHeight="1" spans="2:7">
+      <c r="B66" s="133"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="135"/>
+      <c r="E66" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" s="136" t="s">
+        <v>172</v>
+      </c>
+      <c r="G66" s="102"/>
+    </row>
+    <row r="67" customHeight="1" spans="2:7">
+      <c r="B67" s="156" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" s="126" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="G67" s="137" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="2:7">
+      <c r="B68" s="90"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F68" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68" s="138"/>
+    </row>
+    <row r="69" customHeight="1" spans="2:7">
+      <c r="B69" s="95"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="139"/>
+      <c r="E69" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69" s="98" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69" s="138"/>
+    </row>
+    <row r="70" customHeight="1" spans="2:7">
+      <c r="B70" s="157" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" s="100" t="s">
+        <v>181</v>
+      </c>
+      <c r="E70" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="G70" s="140"/>
+    </row>
+    <row r="71" customHeight="1" spans="2:7">
+      <c r="B71" s="95"/>
+      <c r="C71" s="96" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="96"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="141"/>
+    </row>
+    <row r="72" customHeight="1" spans="2:7">
+      <c r="B72" s="128"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="129"/>
+      <c r="G72" s="142"/>
+    </row>
+    <row r="73" customHeight="1" spans="2:7">
+      <c r="B73" s="165" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="E73" s="144"/>
+      <c r="F73" s="144"/>
+      <c r="G73" s="145"/>
+    </row>
+    <row r="74" customHeight="1" spans="2:7">
+      <c r="B74" s="127"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
-      <c r="F74" s="109"/>
-    </row>
-    <row r="75" customHeight="1" spans="2:6">
-      <c r="B75" s="108"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="146"/>
+    </row>
+    <row r="75" customHeight="1" spans="2:7">
+      <c r="B75" s="127"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
-      <c r="F75" s="109"/>
-    </row>
-    <row r="76" customHeight="1" spans="2:6">
-      <c r="B76" s="108"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="146"/>
+    </row>
+    <row r="76" customHeight="1" spans="2:7">
+      <c r="B76" s="127"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
-      <c r="F76" s="109"/>
-    </row>
-    <row r="77" customHeight="1" spans="2:6">
-      <c r="B77" s="108"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="146"/>
+    </row>
+    <row r="77" customHeight="1" spans="2:7">
+      <c r="B77" s="127"/>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
-      <c r="F77" s="109"/>
-    </row>
-    <row r="78" customHeight="1" spans="2:6">
-      <c r="B78" s="80"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="81"/>
-      <c r="F78" s="110"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="146"/>
+    </row>
+    <row r="78" customHeight="1" spans="2:7">
+      <c r="B78" s="127"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="146"/>
+    </row>
+    <row r="79" customHeight="1" spans="2:7">
+      <c r="B79" s="127"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="146"/>
+    </row>
+    <row r="80" customHeight="1" spans="2:7">
+      <c r="B80" s="127"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="146"/>
+    </row>
+    <row r="81" customHeight="1" spans="2:7">
+      <c r="B81" s="127"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="146"/>
+    </row>
+    <row r="82" customHeight="1" spans="2:7">
+      <c r="B82" s="99"/>
+      <c r="C82" s="100"/>
+      <c r="D82" s="100"/>
+      <c r="E82" s="100"/>
+      <c r="F82" s="100"/>
+      <c r="G82" s="147"/>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G31"/>
+    <mergeCell ref="G32:G42"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="G57:G61"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="G67:G70"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4537,16 +4825,16 @@
     <row r="2" ht="20" customHeight="1" spans="2:11">
       <c r="B2" s="12"/>
       <c r="C2" s="13" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -4555,20 +4843,20 @@
       <c r="K2" s="18"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="2:11">
-      <c r="B3" s="145" t="s">
-        <v>166</v>
+      <c r="B3" s="166" t="s">
+        <v>191</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -4577,20 +4865,20 @@
       <c r="K3" s="19"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:11">
-      <c r="B4" s="145" t="s">
-        <v>170</v>
+      <c r="B4" s="166" t="s">
+        <v>195</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -4599,18 +4887,18 @@
       <c r="K4" s="19"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:11">
-      <c r="B5" s="145" t="s">
-        <v>174</v>
+      <c r="B5" s="166" t="s">
+        <v>199</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -4619,18 +4907,18 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:11">
-      <c r="B6" s="145" t="s">
-        <v>176</v>
+      <c r="B6" s="166" t="s">
+        <v>201</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -4639,8 +4927,8 @@
       <c r="K6" s="19"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:11">
-      <c r="B7" s="145" t="s">
-        <v>179</v>
+      <c r="B7" s="166" t="s">
+        <v>204</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
@@ -4653,8 +4941,8 @@
       <c r="K7" s="19"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:11">
-      <c r="B8" s="145" t="s">
-        <v>180</v>
+      <c r="B8" s="166" t="s">
+        <v>205</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
@@ -4667,8 +4955,8 @@
       <c r="K8" s="19"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:11">
-      <c r="B9" s="145" t="s">
-        <v>181</v>
+      <c r="B9" s="166" t="s">
+        <v>206</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
@@ -4681,8 +4969,8 @@
       <c r="K9" s="19"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:11">
-      <c r="B10" s="145" t="s">
-        <v>182</v>
+      <c r="B10" s="166" t="s">
+        <v>207</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
@@ -4695,8 +4983,8 @@
       <c r="K10" s="19"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:11">
-      <c r="B11" s="145" t="s">
-        <v>183</v>
+      <c r="B11" s="166" t="s">
+        <v>208</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
@@ -4709,8 +4997,8 @@
       <c r="K11" s="19"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:11">
-      <c r="B12" s="145" t="s">
-        <v>184</v>
+      <c r="B12" s="166" t="s">
+        <v>209</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
@@ -4893,121 +5181,121 @@
   <sheetData>
     <row r="44" customHeight="1" spans="2:14">
       <c r="B44" s="2" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:14">
       <c r="C46" s="1" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="4:14">
       <c r="D48" s="3" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:14">
       <c r="C50" s="1" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="E50" s="3"/>
       <c r="N50" s="1" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="4:14">
       <c r="D52" s="1" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="4:4">
       <c r="D53" s="1" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="6:14">
       <c r="F54" s="4" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="9"/>
       <c r="N54" s="1" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="6:10">
       <c r="F55" s="6" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="J55" s="10"/>
     </row>
     <row r="56" customHeight="1" spans="6:10">
       <c r="F56" s="6" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J56" s="10"/>
     </row>
     <row r="57" customHeight="1" spans="6:10">
       <c r="F57" s="6"/>
       <c r="G57" s="1" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="J57" s="10"/>
     </row>
     <row r="58" customHeight="1" spans="6:10">
       <c r="F58" s="6" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="J58" s="10"/>
     </row>
     <row r="59" customHeight="1" spans="6:10">
       <c r="F59" s="6"/>
       <c r="G59" s="1" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J59" s="10"/>
     </row>
     <row r="60" customHeight="1" spans="6:10">
       <c r="F60" s="6" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="J60" s="10"/>
     </row>
     <row r="61" customHeight="1" spans="6:10">
       <c r="F61" s="7" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -5016,37 +5304,37 @@
     </row>
     <row r="62" customHeight="1" spans="4:6">
       <c r="D62" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="4:6">
       <c r="D63" s="1" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:14">
       <c r="B65" s="2" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="4:14">
       <c r="D67" s="4" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -5055,272 +5343,272 @@
       <c r="I67" s="5"/>
       <c r="J67" s="9"/>
       <c r="N67" s="1" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="4:10">
       <c r="D68" s="6" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="J68" s="10"/>
     </row>
     <row r="69" customHeight="1" spans="4:10">
       <c r="D69" s="6" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="J69" s="10"/>
     </row>
     <row r="70" customHeight="1" spans="4:10">
       <c r="D70" s="6" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="J70" s="10"/>
     </row>
     <row r="71" customHeight="1" spans="4:10">
       <c r="D71" s="6" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="J71" s="10"/>
     </row>
     <row r="72" customHeight="1" spans="4:10">
       <c r="D72" s="6" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="J72" s="10"/>
     </row>
     <row r="73" customHeight="1" spans="4:10">
       <c r="D73" s="6" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="J73" s="10"/>
     </row>
     <row r="74" customHeight="1" spans="4:10">
       <c r="D74" s="6" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="J74" s="10"/>
     </row>
     <row r="75" customHeight="1" spans="4:10">
       <c r="D75" s="6" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="J75" s="10"/>
     </row>
     <row r="76" customHeight="1" spans="4:10">
       <c r="D76" s="6" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="J76" s="10"/>
     </row>
     <row r="77" customHeight="1" spans="4:10">
       <c r="D77" s="6" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="J77" s="10"/>
     </row>
     <row r="78" customHeight="1" spans="4:10">
       <c r="D78" s="6" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="J78" s="10"/>
     </row>
     <row r="79" customHeight="1" spans="4:10">
       <c r="D79" s="6" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J79" s="10"/>
     </row>
     <row r="80" customHeight="1" spans="4:10">
       <c r="D80" s="6"/>
       <c r="E80" s="1" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="J80" s="10"/>
     </row>
     <row r="81" customHeight="1" spans="4:10">
       <c r="D81" s="6" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="J81" s="10"/>
     </row>
     <row r="82" customHeight="1" spans="4:10">
       <c r="D82" s="6" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="J82" s="10"/>
     </row>
     <row r="83" customHeight="1" spans="4:10">
       <c r="D83" s="6" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="J83" s="10"/>
     </row>
     <row r="84" customHeight="1" spans="4:10">
       <c r="D84" s="6" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J84" s="10"/>
     </row>
     <row r="85" customHeight="1" spans="4:10">
       <c r="D85" s="6" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="J85" s="10"/>
     </row>
     <row r="86" customHeight="1" spans="4:10">
       <c r="D86" s="6" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="J86" s="10"/>
     </row>
     <row r="87" customHeight="1" spans="4:10">
       <c r="D87" s="6" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="J87" s="10"/>
     </row>
     <row r="88" customHeight="1" spans="4:10">
       <c r="D88" s="6" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="J88" s="10"/>
     </row>
     <row r="89" customHeight="1" spans="4:10">
       <c r="D89" s="6" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="J89" s="10"/>
     </row>
     <row r="90" customHeight="1" spans="4:10">
       <c r="D90" s="6" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="J90" s="10"/>
     </row>
     <row r="91" customHeight="1" spans="4:10">
       <c r="D91" s="6" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="J91" s="10"/>
     </row>
     <row r="92" customHeight="1" spans="4:10">
       <c r="D92" s="6" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J92" s="10"/>
     </row>
     <row r="93" customHeight="1" spans="4:10">
       <c r="D93" s="6" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="J93" s="10"/>
     </row>
     <row r="94" customHeight="1" spans="4:10">
       <c r="D94" s="6" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J94" s="10"/>
     </row>
     <row r="95" customHeight="1" spans="4:10">
       <c r="D95" s="6" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="J95" s="10"/>
     </row>
     <row r="96" customHeight="1" spans="4:10">
       <c r="D96" s="6" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J96" s="10"/>
     </row>
     <row r="97" customHeight="1" spans="4:10">
       <c r="D97" s="6" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="J97" s="10"/>
     </row>
     <row r="98" customHeight="1" spans="4:10">
       <c r="D98" s="6" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J98" s="10"/>
     </row>
     <row r="99" customHeight="1" spans="4:10">
       <c r="D99" s="6" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="J99" s="10"/>
     </row>
     <row r="100" customHeight="1" spans="4:10">
       <c r="D100" s="6" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J100" s="10"/>
     </row>
     <row r="101" customHeight="1" spans="4:10">
       <c r="D101" s="6" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="J101" s="10"/>
     </row>
     <row r="102" customHeight="1" spans="4:10">
       <c r="D102" s="6" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J102" s="10"/>
     </row>
     <row r="103" customHeight="1" spans="4:10">
       <c r="D103" s="6" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="J103" s="10"/>
     </row>
     <row r="104" customHeight="1" spans="4:10">
       <c r="D104" s="6" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J104" s="10"/>
     </row>
     <row r="105" customHeight="1" spans="4:10">
       <c r="D105" s="6" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="J105" s="10"/>
     </row>
     <row r="106" customHeight="1" spans="4:10">
       <c r="D106" s="6" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J106" s="10"/>
     </row>
     <row r="107" customHeight="1" spans="4:10">
       <c r="D107" s="6" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="J107" s="10"/>
     </row>
     <row r="108" customHeight="1" spans="4:10">
       <c r="D108" s="6" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="J108" s="10"/>
     </row>
     <row r="109" customHeight="1" spans="4:10">
       <c r="D109" s="6"/>
       <c r="E109" s="1" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J109" s="10"/>
     </row>
     <row r="110" customHeight="1" spans="4:10">
       <c r="D110" s="6" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="J110" s="10"/>
     </row>
     <row r="111" customHeight="1" spans="4:10">
       <c r="D111" s="7" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>

--- a/OTHERS/DOC/画面設計書.xlsx
+++ b/OTHERS/DOC/画面設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="00.画面機能一覧" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="281">
   <si>
     <t>番号</t>
   </si>
@@ -594,46 +594,79 @@
     <t>代行発送ステータス</t>
   </si>
   <si>
+    <t>発送区分</t>
+  </si>
+  <si>
+    <t>発送ステータス</t>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
     <t>親商品</t>
   </si>
   <si>
-    <t>登録済</t>
+    <t>1.新　規</t>
   </si>
   <si>
     <t>依頼中</t>
   </si>
   <si>
+    <t>アマゾンFBM</t>
+  </si>
+  <si>
+    <t>未発送</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
     <t>子商品</t>
   </si>
   <si>
+    <t>2.発送済</t>
+  </si>
+  <si>
+    <t>受入済</t>
+  </si>
+  <si>
+    <t>Qoo10</t>
+  </si>
+  <si>
+    <t>作業中</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>3.受領中</t>
+  </si>
+  <si>
+    <t>3.仕入済</t>
+  </si>
+  <si>
     <t>発送済</t>
   </si>
   <si>
-    <t>受入済</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>受領中</t>
+    <t>ヤフオク</t>
   </si>
   <si>
     <t>04</t>
   </si>
   <si>
-    <t>納品済</t>
+    <t>4.納品済</t>
   </si>
   <si>
     <t>支払済</t>
   </si>
   <si>
+    <t>Paypayフリマ</t>
+  </si>
+  <si>
     <t>05</t>
+  </si>
+  <si>
+    <t>メルカリ</t>
   </si>
   <si>
     <t>06</t>
@@ -838,8 +871,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1030,7 +1063,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,6 +1073,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1941,31 +1980,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1977,10 +2016,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2001,28 +2040,28 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2031,19 +2070,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2055,38 +2091,41 @@
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2138,6 +2177,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2150,13 +2192,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
@@ -2180,9 +2222,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2210,51 +2249,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2276,73 +2270,115 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
@@ -2402,33 +2438,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2498,18 +2513,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2537,22 +2543,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" quotePrefix="1">
@@ -2562,9 +2568,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
@@ -3654,7 +3657,7 @@
   <sheetPr/>
   <dimension ref="B2:G82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -3668,81 +3671,81 @@
     <col min="6" max="7" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="20" customFormat="1" ht="30" customHeight="1" spans="2:7">
-      <c r="B2" s="21" t="s">
+    <row r="2" s="21" customFormat="1" ht="30" customHeight="1" spans="2:7">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:7">
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:7">
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" customHeight="1" spans="2:7">
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="27" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3768,748 +3771,748 @@
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
       <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" customHeight="1" spans="2:7">
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:7">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" customHeight="1" spans="2:7">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="50"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" customHeight="1" spans="2:7">
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="55"/>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" customHeight="1" spans="2:7">
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="58" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="63"/>
+      <c r="G14" s="62"/>
     </row>
     <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="64" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="63"/>
+      <c r="G15" s="62"/>
     </row>
     <row r="16" customHeight="1" spans="2:7">
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="67"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:7">
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="70"/>
+      <c r="G18" s="69"/>
     </row>
     <row r="19" customHeight="1" spans="2:7">
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73" t="s">
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="75"/>
+      <c r="G19" s="74"/>
     </row>
     <row r="20" customHeight="1" spans="2:7">
-      <c r="B20" s="153" t="s">
+      <c r="B20" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="67" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:7">
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="62" t="s">
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="70"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="22" customHeight="1" spans="2:7">
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62" t="s">
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="70"/>
+      <c r="G22" s="69"/>
     </row>
     <row r="23" customHeight="1" spans="2:7">
-      <c r="B23" s="78"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62" t="s">
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="70"/>
+      <c r="G23" s="69"/>
     </row>
     <row r="24" customHeight="1" spans="2:7">
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="70"/>
+      <c r="G24" s="69"/>
     </row>
     <row r="25" customHeight="1" spans="2:7">
-      <c r="B25" s="78"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62" t="s">
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="70"/>
+      <c r="G25" s="69"/>
     </row>
     <row r="26" customHeight="1" spans="2:7">
-      <c r="B26" s="78"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62" t="s">
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="69" t="s">
+      <c r="F26" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="70"/>
+      <c r="G26" s="69"/>
     </row>
     <row r="27" customHeight="1" spans="2:7">
-      <c r="B27" s="78"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62" t="s">
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="70"/>
+      <c r="G27" s="69"/>
     </row>
     <row r="28" customHeight="1" spans="2:7">
-      <c r="B28" s="78"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62" t="s">
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="69" t="s">
+      <c r="F28" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="70"/>
+      <c r="G28" s="69"/>
     </row>
     <row r="29" customHeight="1" spans="2:7">
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83" t="s">
+      <c r="B29" s="79"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="84" t="s">
+      <c r="F29" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="70"/>
+      <c r="G29" s="69"/>
     </row>
     <row r="30" customHeight="1" spans="2:7">
-      <c r="B30" s="154" t="s">
+      <c r="B30" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="82" t="s">
+      <c r="D30" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="82" t="s">
+      <c r="F30" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="70"/>
+      <c r="G30" s="69"/>
     </row>
     <row r="31" customHeight="1" spans="2:7">
-      <c r="B31" s="152" t="s">
+      <c r="B31" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="74" t="s">
+      <c r="F31" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="75"/>
+      <c r="G31" s="74"/>
     </row>
     <row r="32" customHeight="1" spans="2:7">
-      <c r="B32" s="155" t="s">
+      <c r="B32" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="E32" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="58" t="s">
+      <c r="F32" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="67" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:7">
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62" t="s">
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="70"/>
+      <c r="G33" s="69"/>
     </row>
     <row r="34" customHeight="1" spans="2:7">
-      <c r="B34" s="60"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62" t="s">
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="69" t="s">
+      <c r="F34" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="70"/>
+      <c r="G34" s="69"/>
     </row>
     <row r="35" customHeight="1" spans="2:7">
-      <c r="B35" s="60"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62" t="s">
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="70"/>
+      <c r="G35" s="69"/>
     </row>
     <row r="36" customHeight="1" spans="2:7">
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62" t="s">
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="69" t="s">
+      <c r="F36" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="70"/>
+      <c r="G36" s="69"/>
     </row>
     <row r="37" customHeight="1" spans="2:7">
-      <c r="B37" s="60"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62" t="s">
+      <c r="B37" s="59"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="69" t="s">
+      <c r="F37" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="G37" s="70"/>
+      <c r="G37" s="69"/>
     </row>
     <row r="38" customHeight="1" spans="2:7">
-      <c r="B38" s="60"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="69" t="s">
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="69" t="s">
+      <c r="F38" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="70"/>
+      <c r="G38" s="69"/>
     </row>
     <row r="39" customHeight="1" spans="2:7">
-      <c r="B39" s="60"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="69" t="s">
+      <c r="B39" s="59"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="69" t="s">
+      <c r="F39" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="70"/>
+      <c r="G39" s="69"/>
     </row>
     <row r="40" customHeight="1" spans="2:7">
-      <c r="B40" s="85"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="83" t="s">
+      <c r="B40" s="84"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="84" t="s">
+      <c r="F40" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="G40" s="70"/>
+      <c r="G40" s="69"/>
     </row>
     <row r="41" customHeight="1" spans="2:7">
-      <c r="B41" s="154" t="s">
+      <c r="B41" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="82" t="s">
+      <c r="C41" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="82" t="s">
+      <c r="D41" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="82" t="s">
+      <c r="E41" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="82" t="s">
+      <c r="F41" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="G41" s="70"/>
+      <c r="G41" s="69"/>
     </row>
     <row r="42" customHeight="1" spans="2:7">
-      <c r="B42" s="152" t="s">
+      <c r="B42" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="66" t="s">
+      <c r="D42" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="66" t="s">
+      <c r="E42" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="74" t="s">
+      <c r="F42" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="G42" s="75"/>
+      <c r="G42" s="74"/>
     </row>
     <row r="43" customHeight="1" spans="2:7">
-      <c r="B43" s="156" t="s">
+      <c r="B43" s="145" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="87" t="s">
+      <c r="C43" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="87" t="s">
+      <c r="D43" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="88" t="s">
+      <c r="E43" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="88" t="s">
+      <c r="F43" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="G43" s="89" t="s">
+      <c r="G43" s="88" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:7">
-      <c r="B44" s="90"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="92" t="s">
+      <c r="B44" s="89"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="93" t="s">
+      <c r="F44" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="94"/>
+      <c r="G44" s="93"/>
     </row>
     <row r="45" customHeight="1" spans="2:7">
-      <c r="B45" s="95"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="97" t="s">
+      <c r="B45" s="94"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="98" t="s">
+      <c r="F45" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="94"/>
+      <c r="G45" s="93"/>
     </row>
     <row r="46" customHeight="1" spans="2:7">
-      <c r="B46" s="157" t="s">
+      <c r="B46" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="100" t="s">
+      <c r="C46" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="100" t="s">
+      <c r="D46" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="E46" s="100" t="s">
+      <c r="E46" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="101" t="s">
+      <c r="F46" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="G46" s="102"/>
+      <c r="G46" s="101"/>
     </row>
     <row r="47" customHeight="1" spans="2:7">
-      <c r="B47" s="158" t="s">
+      <c r="B47" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="104" t="s">
+      <c r="C47" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="D47" s="104" t="s">
+      <c r="D47" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="E47" s="88" t="s">
+      <c r="E47" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="88" t="s">
+      <c r="F47" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="G47" s="89" t="s">
+      <c r="G47" s="88" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:7">
-      <c r="B48" s="90"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="92" t="s">
+      <c r="B48" s="89"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="93" t="s">
+      <c r="F48" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="94"/>
+      <c r="G48" s="93"/>
     </row>
     <row r="49" customHeight="1" spans="2:7">
-      <c r="B49" s="95"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="97" t="s">
+      <c r="B49" s="94"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="98" t="s">
+      <c r="F49" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="G49" s="94"/>
+      <c r="G49" s="93"/>
     </row>
     <row r="50" customHeight="1" spans="2:7">
-      <c r="B50" s="157" t="s">
+      <c r="B50" s="146" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="100" t="s">
+      <c r="C50" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="100" t="s">
+      <c r="D50" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="100" t="s">
+      <c r="E50" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F50" s="101" t="s">
+      <c r="F50" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="G50" s="102"/>
+      <c r="G50" s="101"/>
     </row>
     <row r="51" customHeight="1" spans="2:7">
-      <c r="B51" s="159" t="s">
+      <c r="B51" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="106" t="s">
+      <c r="C51" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="106" t="s">
+      <c r="D51" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="E51" s="107" t="s">
+      <c r="E51" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="107" t="s">
+      <c r="F51" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="G51" s="108" t="s">
+      <c r="G51" s="104" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:7">
-      <c r="B52" s="109"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="111" t="s">
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="111" t="s">
+      <c r="F52" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="G52" s="112"/>
+      <c r="G52" s="105"/>
     </row>
     <row r="53" customHeight="1" spans="2:7">
-      <c r="B53" s="109"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="113" t="s">
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="111" t="s">
+      <c r="F53" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G53" s="112"/>
+      <c r="G53" s="105"/>
     </row>
     <row r="54" customHeight="1" spans="2:7">
-      <c r="B54" s="114"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="116" t="s">
+      <c r="B54" s="106"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="F54" s="117" t="s">
+      <c r="F54" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="G54" s="112"/>
+      <c r="G54" s="105"/>
     </row>
     <row r="55" customHeight="1" spans="2:7">
-      <c r="B55" s="160" t="s">
+      <c r="B55" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="119" t="s">
+      <c r="C55" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="D55" s="120" t="s">
+      <c r="D55" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="E55" s="120" t="s">
+      <c r="E55" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="120" t="s">
+      <c r="F55" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="G55" s="112"/>
+      <c r="G55" s="105"/>
     </row>
     <row r="56" customHeight="1" spans="2:7">
-      <c r="B56" s="161" t="s">
+      <c r="B56" s="149" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="122" t="s">
+      <c r="C56" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="123" t="s">
+      <c r="D56" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="E56" s="123" t="s">
+      <c r="E56" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="F56" s="123" t="s">
+      <c r="F56" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="G56" s="124"/>
+      <c r="G56" s="116"/>
     </row>
     <row r="57" customHeight="1" spans="2:7">
-      <c r="B57" s="162" t="s">
+      <c r="B57" s="150" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="126" t="s">
+      <c r="C57" s="118" t="s">
         <v>147</v>
       </c>
-      <c r="D57" s="87" t="s">
+      <c r="D57" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="88" t="s">
+      <c r="E57" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="88" t="s">
+      <c r="F57" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="G57" s="89" t="s">
+      <c r="G57" s="88" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:7">
-      <c r="B58" s="90"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="92" t="s">
+      <c r="B58" s="89"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="F58" s="93" t="s">
+      <c r="F58" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="G58" s="94"/>
+      <c r="G58" s="93"/>
     </row>
     <row r="59" customHeight="1" spans="2:7">
-      <c r="B59" s="95"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="97" t="s">
+      <c r="B59" s="94"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="F59" s="98" t="s">
+      <c r="F59" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="94"/>
+      <c r="G59" s="93"/>
     </row>
     <row r="60" customHeight="1" spans="2:7">
-      <c r="B60" s="163" t="s">
+      <c r="B60" s="151" t="s">
         <v>155</v>
       </c>
       <c r="C60" s="15" t="s">
@@ -4524,265 +4527,265 @@
       <c r="F60" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G60" s="94"/>
+      <c r="G60" s="93"/>
     </row>
     <row r="61" customHeight="1" spans="2:7">
-      <c r="B61" s="157" t="s">
+      <c r="B61" s="146" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="100" t="s">
+      <c r="C61" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="D61" s="100" t="s">
+      <c r="D61" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="E61" s="100" t="s">
+      <c r="E61" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="100" t="s">
+      <c r="F61" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="G61" s="102"/>
+      <c r="G61" s="101"/>
     </row>
     <row r="62" customHeight="1" spans="2:7">
-      <c r="B62" s="162" t="s">
+      <c r="B62" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="126" t="s">
+      <c r="C62" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="126" t="s">
+      <c r="D62" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="E62" s="88" t="s">
+      <c r="E62" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="88" t="s">
+      <c r="F62" s="87" t="s">
         <v>164</v>
       </c>
-      <c r="G62" s="89" t="s">
+      <c r="G62" s="88" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:7">
-      <c r="B63" s="90"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="92" t="s">
+      <c r="B63" s="89"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="F63" s="93" t="s">
+      <c r="F63" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="G63" s="94"/>
+      <c r="G63" s="93"/>
     </row>
     <row r="64" customHeight="1" spans="2:7">
-      <c r="B64" s="95"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="96"/>
-      <c r="E64" s="97" t="s">
+      <c r="B64" s="94"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="95"/>
+      <c r="E64" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="F64" s="98" t="s">
+      <c r="F64" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="G64" s="94"/>
+      <c r="G64" s="93"/>
     </row>
     <row r="65" customHeight="1" spans="2:7">
-      <c r="B65" s="164" t="s">
+      <c r="B65" s="152" t="s">
         <v>167</v>
       </c>
-      <c r="C65" s="129" t="s">
+      <c r="C65" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="D65" s="130" t="s">
+      <c r="D65" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="E65" s="131" t="s">
+      <c r="E65" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="F65" s="132" t="s">
+      <c r="F65" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="G65" s="94"/>
+      <c r="G65" s="93"/>
     </row>
     <row r="66" customHeight="1" spans="2:7">
-      <c r="B66" s="133"/>
-      <c r="C66" s="134"/>
-      <c r="D66" s="135"/>
-      <c r="E66" s="136" t="s">
+      <c r="B66" s="125"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="127"/>
+      <c r="E66" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="F66" s="136" t="s">
+      <c r="F66" s="128" t="s">
         <v>172</v>
       </c>
-      <c r="G66" s="102"/>
+      <c r="G66" s="101"/>
     </row>
     <row r="67" customHeight="1" spans="2:7">
-      <c r="B67" s="156" t="s">
+      <c r="B67" s="145" t="s">
         <v>173</v>
       </c>
-      <c r="C67" s="87" t="s">
+      <c r="C67" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="D67" s="126" t="s">
+      <c r="D67" s="118" t="s">
         <v>175</v>
       </c>
-      <c r="E67" s="88" t="s">
+      <c r="E67" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="88" t="s">
+      <c r="F67" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="G67" s="137" t="s">
+      <c r="G67" s="88" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:7">
-      <c r="B68" s="90"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="104"/>
-      <c r="E68" s="92" t="s">
+      <c r="B68" s="89"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="F68" s="93" t="s">
+      <c r="F68" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="G68" s="138"/>
+      <c r="G68" s="93"/>
     </row>
     <row r="69" customHeight="1" spans="2:7">
-      <c r="B69" s="95"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="139"/>
-      <c r="E69" s="97" t="s">
+      <c r="B69" s="94"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="129"/>
+      <c r="E69" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="F69" s="98" t="s">
+      <c r="F69" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="G69" s="138"/>
+      <c r="G69" s="93"/>
     </row>
     <row r="70" customHeight="1" spans="2:7">
-      <c r="B70" s="157" t="s">
+      <c r="B70" s="146" t="s">
         <v>179</v>
       </c>
-      <c r="C70" s="100" t="s">
+      <c r="C70" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="D70" s="100" t="s">
+      <c r="D70" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="E70" s="101" t="s">
+      <c r="E70" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="F70" s="101" t="s">
+      <c r="F70" s="100" t="s">
         <v>182</v>
       </c>
-      <c r="G70" s="140"/>
+      <c r="G70" s="101"/>
     </row>
     <row r="71" customHeight="1" spans="2:7">
-      <c r="B71" s="95"/>
-      <c r="C71" s="96" t="s">
+      <c r="B71" s="94"/>
+      <c r="C71" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="D71" s="96"/>
-      <c r="E71" s="96"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="141"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="130"/>
     </row>
     <row r="72" customHeight="1" spans="2:7">
-      <c r="B72" s="128"/>
-      <c r="C72" s="129"/>
-      <c r="D72" s="129"/>
-      <c r="E72" s="129"/>
-      <c r="F72" s="129"/>
-      <c r="G72" s="142"/>
+      <c r="B72" s="120"/>
+      <c r="C72" s="121"/>
+      <c r="D72" s="121"/>
+      <c r="E72" s="121"/>
+      <c r="F72" s="121"/>
+      <c r="G72" s="131"/>
     </row>
     <row r="73" customHeight="1" spans="2:7">
-      <c r="B73" s="165" t="s">
+      <c r="B73" s="153" t="s">
         <v>184</v>
       </c>
-      <c r="C73" s="144" t="s">
+      <c r="C73" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="144" t="s">
+      <c r="D73" s="133" t="s">
         <v>186</v>
       </c>
-      <c r="E73" s="144"/>
-      <c r="F73" s="144"/>
-      <c r="G73" s="145"/>
+      <c r="E73" s="133"/>
+      <c r="F73" s="133"/>
+      <c r="G73" s="134"/>
     </row>
     <row r="74" customHeight="1" spans="2:7">
-      <c r="B74" s="127"/>
+      <c r="B74" s="119"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
-      <c r="G74" s="146"/>
+      <c r="G74" s="135"/>
     </row>
     <row r="75" customHeight="1" spans="2:7">
-      <c r="B75" s="127"/>
+      <c r="B75" s="119"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
-      <c r="G75" s="146"/>
+      <c r="G75" s="135"/>
     </row>
     <row r="76" customHeight="1" spans="2:7">
-      <c r="B76" s="127"/>
+      <c r="B76" s="119"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
-      <c r="G76" s="146"/>
+      <c r="G76" s="135"/>
     </row>
     <row r="77" customHeight="1" spans="2:7">
-      <c r="B77" s="127"/>
+      <c r="B77" s="119"/>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
-      <c r="G77" s="146"/>
+      <c r="G77" s="135"/>
     </row>
     <row r="78" customHeight="1" spans="2:7">
-      <c r="B78" s="127"/>
+      <c r="B78" s="119"/>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
-      <c r="G78" s="146"/>
+      <c r="G78" s="135"/>
     </row>
     <row r="79" customHeight="1" spans="2:7">
-      <c r="B79" s="127"/>
+      <c r="B79" s="119"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
-      <c r="G79" s="146"/>
+      <c r="G79" s="135"/>
     </row>
     <row r="80" customHeight="1" spans="2:7">
-      <c r="B80" s="127"/>
+      <c r="B80" s="119"/>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
-      <c r="G80" s="146"/>
+      <c r="G80" s="135"/>
     </row>
     <row r="81" customHeight="1" spans="2:7">
-      <c r="B81" s="127"/>
+      <c r="B81" s="119"/>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
-      <c r="G81" s="146"/>
+      <c r="G81" s="135"/>
     </row>
     <row r="82" customHeight="1" spans="2:7">
-      <c r="B82" s="99"/>
-      <c r="C82" s="100"/>
-      <c r="D82" s="100"/>
-      <c r="E82" s="100"/>
-      <c r="F82" s="100"/>
-      <c r="G82" s="147"/>
+      <c r="B82" s="98"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="99"/>
+      <c r="E82" s="99"/>
+      <c r="F82" s="99"/>
+      <c r="G82" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4810,8 +4813,8 @@
   <sheetPr/>
   <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4819,7 +4822,9 @@
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="11" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="20" customHeight="1" spans="2:11">
@@ -4836,275 +4841,293 @@
       <c r="F2" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="G2" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
-      <c r="K2" s="18"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="2:11">
-      <c r="B3" s="166" t="s">
-        <v>191</v>
+      <c r="B3" s="154" t="s">
+        <v>193</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="19"/>
+        <v>195</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:11">
-      <c r="B4" s="166" t="s">
-        <v>195</v>
+      <c r="B4" s="154" t="s">
+        <v>199</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="19"/>
+        <v>201</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:11">
-      <c r="B5" s="166" t="s">
-        <v>199</v>
+      <c r="B5" s="154" t="s">
+        <v>205</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="19"/>
+        <v>207</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:11">
-      <c r="B6" s="166" t="s">
-        <v>201</v>
+      <c r="B6" s="154" t="s">
+        <v>210</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="19"/>
+        <v>211</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:11">
-      <c r="B7" s="166" t="s">
-        <v>204</v>
+      <c r="B7" s="154" t="s">
+        <v>214</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:11">
-      <c r="B8" s="166" t="s">
-        <v>205</v>
+      <c r="B8" s="154" t="s">
+        <v>216</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:11">
-      <c r="B9" s="166" t="s">
-        <v>206</v>
+      <c r="B9" s="154" t="s">
+        <v>217</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:11">
-      <c r="B10" s="166" t="s">
-        <v>207</v>
+      <c r="B10" s="154" t="s">
+        <v>218</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:11">
-      <c r="B11" s="166" t="s">
-        <v>208</v>
+      <c r="B11" s="154" t="s">
+        <v>219</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:11">
-      <c r="B12" s="166" t="s">
-        <v>209</v>
+      <c r="B12" s="154" t="s">
+        <v>220</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="2:11">
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="2:11">
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="2:11">
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:11">
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:11">
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:11">
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:11">
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:11">
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5168,10 +5191,10 @@
   <sheetPr/>
   <dimension ref="B44:N111"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="4845" topLeftCell="A113" activePane="bottomLeft"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" topLeftCell="A125" workbookViewId="0">
+      <pane ySplit="4845" topLeftCell="A37" activePane="bottomLeft"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AG125" sqref="AG125"/>
+      <selection pane="bottomLeft" activeCell="T57" sqref="T57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -5181,121 +5204,121 @@
   <sheetData>
     <row r="44" customHeight="1" spans="2:14">
       <c r="B44" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:14">
       <c r="C46" s="1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="4:14">
       <c r="D48" s="3" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:14">
       <c r="C50" s="1" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E50" s="3"/>
       <c r="N50" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="4:14">
       <c r="D52" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="4:4">
       <c r="D53" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="6:14">
       <c r="F54" s="4" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="9"/>
       <c r="N54" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="6:10">
       <c r="F55" s="6" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="J55" s="10"/>
     </row>
     <row r="56" customHeight="1" spans="6:10">
       <c r="F56" s="6" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="J56" s="10"/>
     </row>
     <row r="57" customHeight="1" spans="6:10">
       <c r="F57" s="6"/>
       <c r="G57" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="J57" s="10"/>
     </row>
     <row r="58" customHeight="1" spans="6:10">
       <c r="F58" s="6" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="J58" s="10"/>
     </row>
     <row r="59" customHeight="1" spans="6:10">
       <c r="F59" s="6"/>
       <c r="G59" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="J59" s="10"/>
     </row>
     <row r="60" customHeight="1" spans="6:10">
       <c r="F60" s="6" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="J60" s="10"/>
     </row>
     <row r="61" customHeight="1" spans="6:10">
       <c r="F61" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -5304,37 +5327,37 @@
     </row>
     <row r="62" customHeight="1" spans="4:6">
       <c r="D62" s="1" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="4:6">
       <c r="D63" s="1" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:14">
       <c r="B65" s="2" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="4:14">
       <c r="D67" s="4" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -5343,272 +5366,272 @@
       <c r="I67" s="5"/>
       <c r="J67" s="9"/>
       <c r="N67" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="4:10">
       <c r="D68" s="6" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="J68" s="10"/>
     </row>
     <row r="69" customHeight="1" spans="4:10">
       <c r="D69" s="6" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="J69" s="10"/>
     </row>
     <row r="70" customHeight="1" spans="4:10">
       <c r="D70" s="6" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="J70" s="10"/>
     </row>
     <row r="71" customHeight="1" spans="4:10">
       <c r="D71" s="6" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="J71" s="10"/>
     </row>
     <row r="72" customHeight="1" spans="4:10">
       <c r="D72" s="6" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="J72" s="10"/>
     </row>
     <row r="73" customHeight="1" spans="4:10">
       <c r="D73" s="6" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="J73" s="10"/>
     </row>
     <row r="74" customHeight="1" spans="4:10">
       <c r="D74" s="6" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="J74" s="10"/>
     </row>
     <row r="75" customHeight="1" spans="4:10">
       <c r="D75" s="6" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="J75" s="10"/>
     </row>
     <row r="76" customHeight="1" spans="4:10">
       <c r="D76" s="6" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="J76" s="10"/>
     </row>
     <row r="77" customHeight="1" spans="4:10">
       <c r="D77" s="6" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="J77" s="10"/>
     </row>
     <row r="78" customHeight="1" spans="4:10">
       <c r="D78" s="6" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="J78" s="10"/>
     </row>
     <row r="79" customHeight="1" spans="4:10">
       <c r="D79" s="6" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="J79" s="10"/>
     </row>
     <row r="80" customHeight="1" spans="4:10">
       <c r="D80" s="6"/>
       <c r="E80" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="J80" s="10"/>
     </row>
     <row r="81" customHeight="1" spans="4:10">
       <c r="D81" s="6" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="J81" s="10"/>
     </row>
     <row r="82" customHeight="1" spans="4:10">
       <c r="D82" s="6" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J82" s="10"/>
     </row>
     <row r="83" customHeight="1" spans="4:10">
       <c r="D83" s="6" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="J83" s="10"/>
     </row>
     <row r="84" customHeight="1" spans="4:10">
       <c r="D84" s="6" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="J84" s="10"/>
     </row>
     <row r="85" customHeight="1" spans="4:10">
       <c r="D85" s="6" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="J85" s="10"/>
     </row>
     <row r="86" customHeight="1" spans="4:10">
       <c r="D86" s="6" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="J86" s="10"/>
     </row>
     <row r="87" customHeight="1" spans="4:10">
       <c r="D87" s="6" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="J87" s="10"/>
     </row>
     <row r="88" customHeight="1" spans="4:10">
       <c r="D88" s="6" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="J88" s="10"/>
     </row>
     <row r="89" customHeight="1" spans="4:10">
       <c r="D89" s="6" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="J89" s="10"/>
     </row>
     <row r="90" customHeight="1" spans="4:10">
       <c r="D90" s="6" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J90" s="10"/>
     </row>
     <row r="91" customHeight="1" spans="4:10">
       <c r="D91" s="6" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="J91" s="10"/>
     </row>
     <row r="92" customHeight="1" spans="4:10">
       <c r="D92" s="6" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="J92" s="10"/>
     </row>
     <row r="93" customHeight="1" spans="4:10">
       <c r="D93" s="6" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="J93" s="10"/>
     </row>
     <row r="94" customHeight="1" spans="4:10">
       <c r="D94" s="6" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="J94" s="10"/>
     </row>
     <row r="95" customHeight="1" spans="4:10">
       <c r="D95" s="6" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="J95" s="10"/>
     </row>
     <row r="96" customHeight="1" spans="4:10">
       <c r="D96" s="6" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="J96" s="10"/>
     </row>
     <row r="97" customHeight="1" spans="4:10">
       <c r="D97" s="6" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="J97" s="10"/>
     </row>
     <row r="98" customHeight="1" spans="4:10">
       <c r="D98" s="6" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="J98" s="10"/>
     </row>
     <row r="99" customHeight="1" spans="4:10">
       <c r="D99" s="6" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="J99" s="10"/>
     </row>
     <row r="100" customHeight="1" spans="4:10">
       <c r="D100" s="6" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="J100" s="10"/>
     </row>
     <row r="101" customHeight="1" spans="4:10">
       <c r="D101" s="6" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="J101" s="10"/>
     </row>
     <row r="102" customHeight="1" spans="4:10">
       <c r="D102" s="6" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="J102" s="10"/>
     </row>
     <row r="103" customHeight="1" spans="4:10">
       <c r="D103" s="6" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="J103" s="10"/>
     </row>
     <row r="104" customHeight="1" spans="4:10">
       <c r="D104" s="6" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="J104" s="10"/>
     </row>
     <row r="105" customHeight="1" spans="4:10">
       <c r="D105" s="6" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="J105" s="10"/>
     </row>
     <row r="106" customHeight="1" spans="4:10">
       <c r="D106" s="6" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="J106" s="10"/>
     </row>
     <row r="107" customHeight="1" spans="4:10">
       <c r="D107" s="6" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="J107" s="10"/>
     </row>
     <row r="108" customHeight="1" spans="4:10">
       <c r="D108" s="6" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="J108" s="10"/>
     </row>
     <row r="109" customHeight="1" spans="4:10">
       <c r="D109" s="6"/>
       <c r="E109" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="J109" s="10"/>
     </row>
     <row r="110" customHeight="1" spans="4:10">
       <c r="D110" s="6" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="J110" s="10"/>
     </row>
     <row r="111" customHeight="1" spans="4:10">
       <c r="D111" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
@@ -5619,6 +5642,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
